--- a/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報リスト機能.xlsx
+++ b/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報リスト機能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{381A1EA8-041F-4B5C-892A-D3A775EA3FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E70A25-AC8B-4B25-B540-B913F3F6DF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="テストデータ" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
   <si>
     <t>No</t>
   </si>
@@ -180,9 +179,6 @@
   </si>
   <si>
     <t>テストデータNo.1</t>
-  </si>
-  <si>
-    <t>テストデータNo.1</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -201,10 +197,6 @@
   </si>
   <si>
     <t>2024/5/27</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>初期表示雇用保険画面</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -235,337 +227,309 @@
     <t>セレクトボダン押す</t>
   </si>
   <si>
-    <t>セレクトボックスのオプションから社員IDが表示</t>
+    <t>検索</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録ボダン押す</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録画面へ遷移される</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新ボダン押す</t>
+  </si>
+  <si>
+    <t>「更新」ボタンをクリックすると、該当ボタン行の社員IDを持ち、社員更新画面へ遷移。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employeeテブール</t>
+  </si>
+  <si>
+    <t>employeeID</t>
+  </si>
+  <si>
+    <t>employeeName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>epType</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>joinedDate</t>
+  </si>
+  <si>
+    <t>joinedTime</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>mailAdress</t>
+  </si>
+  <si>
+    <t>insertDate</t>
+  </si>
+  <si>
+    <t>updateDate</t>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f883e</t>
+  </si>
+  <si>
+    <t>e002@it-softtech.com</t>
+  </si>
+  <si>
+    <t>全量検索</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンリョウケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「全量検索」ボタン押す</t>
+    <rPh sb="1" eb="5">
+      <t>ゼンリョウケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>personNumber</t>
+  </si>
+  <si>
+    <t>E00001</t>
+  </si>
+  <si>
+    <t>nguyen</t>
+  </si>
+  <si>
+    <t>827ccb0eea8a706c4c34a16891f84e7b</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>19860101</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>20190101</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2310851</t>
+  </si>
+  <si>
+    <t>横浜市中区</t>
+  </si>
+  <si>
+    <t>07012344321</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>e001@it-softtech.com</t>
+  </si>
+  <si>
+    <t>20240508</t>
+  </si>
+  <si>
+    <t>« NULL »</t>
+  </si>
+  <si>
+    <t>E00002</t>
+  </si>
+  <si>
+    <t>1368ba1ab6ed38bb1f26f36673739d54</t>
+  </si>
+  <si>
+    <t>2019-06-05</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2310859</t>
+  </si>
+  <si>
+    <t>07012344322</t>
+  </si>
+  <si>
+    <t>20240417</t>
+  </si>
+  <si>
+    <t>111111111113</t>
+  </si>
+  <si>
+    <t>E00003</t>
+  </si>
+  <si>
+    <t>社員</t>
+  </si>
+  <si>
+    <t>19860103</t>
+  </si>
+  <si>
+    <t>07012344323</t>
+  </si>
+  <si>
+    <t>e003@it-softtech.com</t>
+  </si>
+  <si>
+    <t>E00004</t>
+  </si>
+  <si>
+    <t>nguye</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>20000101</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20230301</t>
+  </si>
+  <si>
+    <t>2312311</t>
+  </si>
+  <si>
+    <t>12312312</t>
+  </si>
+  <si>
+    <t>9292929299</t>
+  </si>
+  <si>
+    <t>e0102@it-softtech.com</t>
+  </si>
+  <si>
+    <t>20240426</t>
+  </si>
+  <si>
+    <t>テストデータNo.１</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストデータNo.1に書いてるデータが表示される</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>初期表示社員情報変更画面</t>
+    <rPh sb="4" eb="8">
+      <t>シャインジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セレクトボックスのオプションから社員氏名が表示</t>
     <rPh sb="16" eb="18">
       <t>シャイン</t>
     </rPh>
+    <rPh sb="18" eb="20">
+      <t>シメイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>検索</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>テストデータNo.2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>①社員IDを選択
+    <t>①社員氏名を選択
 ②「検索」ボダン押す</t>
     <rPh sb="1" eb="3">
       <t>シャイン</t>
     </rPh>
+    <rPh sb="3" eb="5">
+      <t>シメイ</t>
+    </rPh>
     <rPh sb="6" eb="8">
       <t>センタク</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>テストデータNo.2に書いてるデータが表示される</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>新規登録</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>新規登録ボダン押す</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>新規登録画面へ遷移される</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウロク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>更新</t>
+    <t>選択された社員氏名の情報が表示する</t>
     <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>更新ボダン押す</t>
-  </si>
-  <si>
-    <t>「更新」ボタンをクリックすると、該当ボタン行の社員IDを持ち、社員更新画面へ遷移。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>employeeテブール</t>
-  </si>
-  <si>
-    <t>社員ID</t>
-  </si>
-  <si>
-    <t>社員氏名</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>ステータス</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>タイプ</t>
-  </si>
-  <si>
-    <t>生年月日</t>
-  </si>
-  <si>
-    <t>年齢</t>
-  </si>
-  <si>
-    <t>入社年月日</t>
-  </si>
-  <si>
-    <t>社齢</t>
-  </si>
-  <si>
-    <t>郵便番号</t>
-  </si>
-  <si>
-    <t>住所</t>
-  </si>
-  <si>
-    <t>電話番号</t>
-  </si>
-  <si>
-    <t>権限</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>employeeID</t>
-  </si>
-  <si>
-    <t>employeeName</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>epType</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>joinedDate</t>
-  </si>
-  <si>
-    <t>joinedTime</t>
-  </si>
-  <si>
-    <t>postCode</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>authority</t>
-  </si>
-  <si>
-    <t>mailAdress</t>
-  </si>
-  <si>
-    <t>insertDate</t>
-  </si>
-  <si>
-    <t>updateDate</t>
-  </si>
-  <si>
-    <t>e10adc3949ba59abbe56e057f20f883e</t>
-  </si>
-  <si>
-    <t>e002@it-softtech.com</t>
-  </si>
-  <si>
-    <t>E00002</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>nguyen</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>全量検索</t>
-    <rPh sb="0" eb="4">
-      <t>ゼンリョウケンサク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>テストデータNo.3</t>
-  </si>
-  <si>
-    <t>「全量検索」ボタン押す</t>
-    <rPh sb="1" eb="5">
-      <t>ゼンリョウケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>テストデータNo.3に書いてるデータが表示される</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>personNumber</t>
-  </si>
-  <si>
-    <t>E00001</t>
-  </si>
-  <si>
-    <t>nguyen</t>
-  </si>
-  <si>
-    <t>827ccb0eea8a706c4c34a16891f84e7b</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>19860101</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>20190101</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2310851</t>
-  </si>
-  <si>
-    <t>横浜市中区</t>
-  </si>
-  <si>
-    <t>07012344321</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>e001@it-softtech.com</t>
-  </si>
-  <si>
-    <t>20240508</t>
-  </si>
-  <si>
-    <t>« NULL »</t>
-  </si>
-  <si>
-    <t>E00002</t>
-  </si>
-  <si>
-    <t>1368ba1ab6ed38bb1f26f36673739d54</t>
-  </si>
-  <si>
-    <t>2019-06-05</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2310859</t>
-  </si>
-  <si>
-    <t>07012344322</t>
-  </si>
-  <si>
-    <t>20240417</t>
-  </si>
-  <si>
-    <t>111111111113</t>
-  </si>
-  <si>
-    <t>E00003</t>
-  </si>
-  <si>
-    <t>社員</t>
-  </si>
-  <si>
-    <t>19860103</t>
-  </si>
-  <si>
-    <t>07012344323</t>
-  </si>
-  <si>
-    <t>e003@it-softtech.com</t>
-  </si>
-  <si>
-    <t>E00004</t>
-  </si>
-  <si>
-    <t>nguye</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>20000101</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20230301</t>
-  </si>
-  <si>
-    <t>2312311</t>
-  </si>
-  <si>
-    <t>12312312</t>
-  </si>
-  <si>
-    <t>9292929299</t>
-  </si>
-  <si>
-    <t>e0102@it-softtech.com</t>
-  </si>
-  <si>
-    <t>20240426</t>
-  </si>
-  <si>
-    <t>テストデータNo.３</t>
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -576,7 +540,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,14 +672,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -733,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,22 +704,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6D9F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAC090"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF87E7AD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1040,19 +986,6 @@
       <bottom style="double">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1085,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1190,35 +1123,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="21" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1278,7 +1190,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1286,42 +1234,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1419,15 +1331,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1827,16 +1730,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
       <c r="R15" s="8"/>
       <c r="X15" s="7"/>
     </row>
@@ -1844,20 +1747,20 @@
       <c r="A16" s="5"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -1882,58 +1785,58 @@
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="53"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="46"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="49"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="59"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="52"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -1958,58 +1861,58 @@
       <c r="A22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="61"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="54"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="62" t="s">
+      <c r="G23" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="57"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="67"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="60"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2352,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P4" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11:AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2433,34 +2336,34 @@
       <c r="BM1" s="27"/>
     </row>
     <row r="2" spans="1:65" s="28" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
       <c r="AQ2" s="29"/>
       <c r="AR2" s="29"/>
       <c r="AS2" s="29"/>
@@ -2486,32 +2389,32 @@
       <c r="BM2" s="27"/>
     </row>
     <row r="3" spans="1:65" s="28" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="103"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
       <c r="AQ3" s="29"/>
       <c r="AR3" s="29"/>
       <c r="AS3" s="29"/>
@@ -2537,244 +2440,244 @@
       <c r="BM3" s="31"/>
     </row>
     <row r="4" spans="1:65" s="28" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="108" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="111" t="s">
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="114" t="s">
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="115"/>
-      <c r="AG4" s="115"/>
-      <c r="AH4" s="115"/>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="115"/>
-      <c r="AM4" s="115"/>
-      <c r="AN4" s="115"/>
-      <c r="AO4" s="115"/>
-      <c r="AP4" s="115"/>
-      <c r="AQ4" s="115"/>
-      <c r="AR4" s="115"/>
-      <c r="AS4" s="115"/>
-      <c r="AT4" s="115"/>
-      <c r="AU4" s="115"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="87" t="s">
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="108"/>
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="108"/>
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="108"/>
+      <c r="AS4" s="108"/>
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="89"/>
-      <c r="AZ4" s="90">
+      <c r="AX4" s="81"/>
+      <c r="AY4" s="82"/>
+      <c r="AZ4" s="83">
         <v>45439</v>
       </c>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="87" t="s">
+      <c r="BA4" s="84"/>
+      <c r="BB4" s="84"/>
+      <c r="BC4" s="84"/>
+      <c r="BD4" s="84"/>
+      <c r="BE4" s="84"/>
+      <c r="BF4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="88"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="90" t="s">
+      <c r="BG4" s="81"/>
+      <c r="BH4" s="82"/>
+      <c r="BI4" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="91"/>
+      <c r="BJ4" s="84"/>
+      <c r="BK4" s="84"/>
+      <c r="BL4" s="84"/>
       <c r="BM4" s="32"/>
     </row>
     <row r="5" spans="1:65" s="28" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="92" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="93"/>
-      <c r="T5" s="94"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="98"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="98"/>
-      <c r="AL5" s="98"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="98"/>
-      <c r="AQ5" s="98"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="98"/>
-      <c r="AV5" s="99"/>
-      <c r="AW5" s="100" t="s">
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="91"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="91"/>
+      <c r="AM5" s="91"/>
+      <c r="AN5" s="91"/>
+      <c r="AO5" s="91"/>
+      <c r="AP5" s="91"/>
+      <c r="AQ5" s="91"/>
+      <c r="AR5" s="91"/>
+      <c r="AS5" s="91"/>
+      <c r="AT5" s="91"/>
+      <c r="AU5" s="91"/>
+      <c r="AV5" s="92"/>
+      <c r="AW5" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="AX5" s="101"/>
-      <c r="AY5" s="102"/>
-      <c r="AZ5" s="101"/>
-      <c r="BA5" s="101"/>
-      <c r="BB5" s="101"/>
-      <c r="BC5" s="101"/>
-      <c r="BD5" s="101"/>
-      <c r="BE5" s="101"/>
-      <c r="BF5" s="100" t="s">
+      <c r="AX5" s="94"/>
+      <c r="AY5" s="95"/>
+      <c r="AZ5" s="94"/>
+      <c r="BA5" s="94"/>
+      <c r="BB5" s="94"/>
+      <c r="BC5" s="94"/>
+      <c r="BD5" s="94"/>
+      <c r="BE5" s="94"/>
+      <c r="BF5" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="BG5" s="101"/>
-      <c r="BH5" s="102"/>
-      <c r="BI5" s="101"/>
-      <c r="BJ5" s="98"/>
-      <c r="BK5" s="98"/>
-      <c r="BL5" s="98"/>
+      <c r="BG5" s="94"/>
+      <c r="BH5" s="95"/>
+      <c r="BI5" s="94"/>
+      <c r="BJ5" s="91"/>
+      <c r="BK5" s="91"/>
+      <c r="BL5" s="91"/>
       <c r="BM5" s="33"/>
     </row>
     <row r="6" spans="1:65" ht="18.600000000000001" thickTop="1"/>
     <row r="7" spans="1:65">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84" t="s">
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="75" t="s">
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="75" t="s">
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AL7" s="85"/>
-      <c r="AM7" s="85"/>
-      <c r="AN7" s="85"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="85"/>
-      <c r="AQ7" s="85"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="85"/>
-      <c r="AT7" s="85"/>
-      <c r="AU7" s="85"/>
-      <c r="AV7" s="85"/>
-      <c r="AW7" s="85"/>
-      <c r="AX7" s="86"/>
-      <c r="AY7" s="75" t="s">
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="79"/>
+      <c r="AY7" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AZ7" s="85"/>
-      <c r="BA7" s="85"/>
-      <c r="BB7" s="85"/>
-      <c r="BC7" s="85"/>
-      <c r="BD7" s="86"/>
-      <c r="BE7" s="75" t="s">
+      <c r="AZ7" s="78"/>
+      <c r="BA7" s="78"/>
+      <c r="BB7" s="78"/>
+      <c r="BC7" s="78"/>
+      <c r="BD7" s="79"/>
+      <c r="BE7" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="BF7" s="85"/>
-      <c r="BG7" s="85"/>
-      <c r="BH7" s="85"/>
-      <c r="BI7" s="86"/>
-      <c r="BJ7" s="75" t="s">
+      <c r="BF7" s="78"/>
+      <c r="BG7" s="78"/>
+      <c r="BH7" s="78"/>
+      <c r="BI7" s="79"/>
+      <c r="BJ7" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="BK7" s="85"/>
-      <c r="BL7" s="85"/>
-      <c r="BM7" s="86"/>
+      <c r="BK7" s="78"/>
+      <c r="BL7" s="78"/>
+      <c r="BM7" s="79"/>
     </row>
     <row r="8" spans="1:65" ht="39" customHeight="1">
       <c r="A8" s="34"/>
@@ -2782,27 +2685,27 @@
         <v>1</v>
       </c>
       <c r="C8" s="36"/>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="75" t="s">
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="37" t="s">
         <v>30</v>
-      </c>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="37" t="s">
-        <v>31</v>
       </c>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
@@ -2822,7 +2725,7 @@
       <c r="AI8" s="35"/>
       <c r="AJ8" s="36"/>
       <c r="AK8" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL8" s="35"/>
       <c r="AM8" s="35"/>
@@ -2837,14 +2740,14 @@
       <c r="AV8" s="35"/>
       <c r="AW8" s="35"/>
       <c r="AX8" s="36"/>
-      <c r="AY8" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ8" s="73"/>
-      <c r="BA8" s="73"/>
-      <c r="BB8" s="73"/>
-      <c r="BC8" s="73"/>
-      <c r="BD8" s="74"/>
+      <c r="AY8" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="64"/>
       <c r="BE8" s="34"/>
       <c r="BF8" s="35"/>
       <c r="BG8" s="38" t="s">
@@ -2852,12 +2755,12 @@
       </c>
       <c r="BH8" s="35"/>
       <c r="BI8" s="36"/>
-      <c r="BJ8" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="BK8" s="82"/>
-      <c r="BL8" s="82"/>
-      <c r="BM8" s="83"/>
+      <c r="BJ8" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK8" s="73"/>
+      <c r="BL8" s="73"/>
+      <c r="BM8" s="74"/>
     </row>
     <row r="9" spans="1:65" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="34"/>
@@ -2866,7 +2769,7 @@
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="37" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -2882,28 +2785,28 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
       <c r="R9" s="36"/>
-      <c r="S9" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="71"/>
+      <c r="S9" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="76"/>
       <c r="AK9" s="37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL9" s="35"/>
       <c r="AM9" s="35"/>
@@ -2918,14 +2821,14 @@
       <c r="AV9" s="35"/>
       <c r="AW9" s="35"/>
       <c r="AX9" s="36"/>
-      <c r="AY9" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ9" s="73"/>
-      <c r="BA9" s="73"/>
-      <c r="BB9" s="73"/>
-      <c r="BC9" s="73"/>
-      <c r="BD9" s="74"/>
+      <c r="AY9" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ9" s="63"/>
+      <c r="BA9" s="63"/>
+      <c r="BB9" s="63"/>
+      <c r="BC9" s="63"/>
+      <c r="BD9" s="64"/>
       <c r="BE9" s="34"/>
       <c r="BF9" s="35"/>
       <c r="BG9" s="38" t="s">
@@ -2933,12 +2836,12 @@
       </c>
       <c r="BH9" s="35"/>
       <c r="BI9" s="36"/>
-      <c r="BJ9" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="BK9" s="82"/>
-      <c r="BL9" s="82"/>
-      <c r="BM9" s="83"/>
+      <c r="BJ9" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK9" s="73"/>
+      <c r="BL9" s="73"/>
+      <c r="BM9" s="74"/>
     </row>
     <row r="10" spans="1:65" ht="32.4" customHeight="1">
       <c r="A10" s="34"/>
@@ -2947,7 +2850,7 @@
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -2964,7 +2867,7 @@
       <c r="Q10" s="35"/>
       <c r="R10" s="36"/>
       <c r="S10" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
@@ -2983,30 +2886,30 @@
       <c r="AH10" s="35"/>
       <c r="AI10" s="35"/>
       <c r="AJ10" s="36"/>
-      <c r="AK10" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL10" s="70"/>
-      <c r="AM10" s="70"/>
-      <c r="AN10" s="70"/>
-      <c r="AO10" s="70"/>
-      <c r="AP10" s="70"/>
-      <c r="AQ10" s="70"/>
-      <c r="AR10" s="70"/>
-      <c r="AS10" s="70"/>
-      <c r="AT10" s="70"/>
-      <c r="AU10" s="70"/>
-      <c r="AV10" s="70"/>
-      <c r="AW10" s="70"/>
-      <c r="AX10" s="71"/>
-      <c r="AY10" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ10" s="73"/>
-      <c r="BA10" s="73"/>
-      <c r="BB10" s="73"/>
-      <c r="BC10" s="73"/>
-      <c r="BD10" s="74"/>
+      <c r="AK10" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ10" s="63"/>
+      <c r="BA10" s="63"/>
+      <c r="BB10" s="63"/>
+      <c r="BC10" s="63"/>
+      <c r="BD10" s="64"/>
       <c r="BE10" s="34"/>
       <c r="BF10" s="35"/>
       <c r="BG10" s="38" t="s">
@@ -3014,12 +2917,12 @@
       </c>
       <c r="BH10" s="35"/>
       <c r="BI10" s="36"/>
-      <c r="BJ10" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="BK10" s="82"/>
-      <c r="BL10" s="82"/>
-      <c r="BM10" s="83"/>
+      <c r="BJ10" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK10" s="73"/>
+      <c r="BL10" s="73"/>
+      <c r="BM10" s="74"/>
     </row>
     <row r="11" spans="1:65" ht="43.8" customHeight="1">
       <c r="A11" s="34"/>
@@ -3028,7 +2931,7 @@
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -3037,59 +2940,59 @@
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="76"/>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="77"/>
-      <c r="AK11" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL11" s="79"/>
-      <c r="AM11" s="79"/>
-      <c r="AN11" s="79"/>
-      <c r="AO11" s="79"/>
-      <c r="AP11" s="79"/>
-      <c r="AQ11" s="79"/>
-      <c r="AR11" s="79"/>
-      <c r="AS11" s="79"/>
-      <c r="AT11" s="79"/>
-      <c r="AU11" s="79"/>
-      <c r="AV11" s="79"/>
-      <c r="AW11" s="79"/>
-      <c r="AX11" s="80"/>
-      <c r="AY11" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ11" s="73"/>
-      <c r="BA11" s="73"/>
-      <c r="BB11" s="73"/>
-      <c r="BC11" s="73"/>
-      <c r="BD11" s="74"/>
+      <c r="L11" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="66"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="69"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ11" s="63"/>
+      <c r="BA11" s="63"/>
+      <c r="BB11" s="63"/>
+      <c r="BC11" s="63"/>
+      <c r="BD11" s="64"/>
       <c r="BE11" s="34"/>
       <c r="BF11" s="35"/>
       <c r="BG11" s="38" t="s">
@@ -3097,12 +3000,12 @@
       </c>
       <c r="BH11" s="35"/>
       <c r="BI11" s="36"/>
-      <c r="BJ11" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="BK11" s="82"/>
-      <c r="BL11" s="82"/>
-      <c r="BM11" s="83"/>
+      <c r="BJ11" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK11" s="73"/>
+      <c r="BL11" s="73"/>
+      <c r="BM11" s="74"/>
     </row>
     <row r="12" spans="1:65" ht="43.8" customHeight="1">
       <c r="A12" s="34"/>
@@ -3111,7 +3014,7 @@
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -3120,59 +3023,59 @@
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="36"/>
-      <c r="L12" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="70"/>
-      <c r="AH12" s="70"/>
-      <c r="AI12" s="70"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL12" s="79"/>
-      <c r="AM12" s="79"/>
-      <c r="AN12" s="79"/>
-      <c r="AO12" s="79"/>
-      <c r="AP12" s="79"/>
-      <c r="AQ12" s="79"/>
-      <c r="AR12" s="79"/>
-      <c r="AS12" s="79"/>
-      <c r="AT12" s="79"/>
-      <c r="AU12" s="79"/>
-      <c r="AV12" s="79"/>
-      <c r="AW12" s="79"/>
-      <c r="AX12" s="80"/>
-      <c r="AY12" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ12" s="73"/>
-      <c r="BA12" s="73"/>
-      <c r="BB12" s="73"/>
-      <c r="BC12" s="73"/>
-      <c r="BD12" s="74"/>
+      <c r="L12" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
+      <c r="BB12" s="63"/>
+      <c r="BC12" s="63"/>
+      <c r="BD12" s="64"/>
       <c r="BE12" s="34"/>
       <c r="BF12" s="35"/>
       <c r="BG12" s="38" t="s">
@@ -3180,21 +3083,21 @@
       </c>
       <c r="BH12" s="35"/>
       <c r="BI12" s="36"/>
-      <c r="BJ12" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="BK12" s="82"/>
-      <c r="BL12" s="82"/>
-      <c r="BM12" s="83"/>
+      <c r="BJ12" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="BK12" s="73"/>
+      <c r="BL12" s="73"/>
+      <c r="BM12" s="74"/>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" s="34"/>
       <c r="B13" s="35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -3211,7 +3114,7 @@
       <c r="Q13" s="35"/>
       <c r="R13" s="36"/>
       <c r="S13" s="37" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
@@ -3231,7 +3134,7 @@
       <c r="AI13" s="35"/>
       <c r="AJ13" s="36"/>
       <c r="AK13" s="37" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AL13" s="35"/>
       <c r="AM13" s="35"/>
@@ -3246,14 +3149,14 @@
       <c r="AV13" s="35"/>
       <c r="AW13" s="35"/>
       <c r="AX13" s="36"/>
-      <c r="AY13" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ13" s="73"/>
-      <c r="BA13" s="73"/>
-      <c r="BB13" s="73"/>
-      <c r="BC13" s="73"/>
-      <c r="BD13" s="74"/>
+      <c r="AY13" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ13" s="63"/>
+      <c r="BA13" s="63"/>
+      <c r="BB13" s="63"/>
+      <c r="BC13" s="63"/>
+      <c r="BD13" s="64"/>
       <c r="BE13" s="34"/>
       <c r="BF13" s="35"/>
       <c r="BG13" s="38" t="s">
@@ -3261,21 +3164,21 @@
       </c>
       <c r="BH13" s="35"/>
       <c r="BI13" s="36"/>
-      <c r="BJ13" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="BK13" s="82"/>
-      <c r="BL13" s="82"/>
-      <c r="BM13" s="83"/>
+      <c r="BJ13" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK13" s="73"/>
+      <c r="BL13" s="73"/>
+      <c r="BM13" s="74"/>
     </row>
     <row r="14" spans="1:65" ht="31.8" customHeight="1">
       <c r="A14" s="34"/>
       <c r="B14" s="35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="37" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -3292,7 +3195,7 @@
       <c r="Q14" s="35"/>
       <c r="R14" s="36"/>
       <c r="S14" s="34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
@@ -3311,30 +3214,30 @@
       <c r="AH14" s="35"/>
       <c r="AI14" s="35"/>
       <c r="AJ14" s="36"/>
-      <c r="AK14" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL14" s="70"/>
-      <c r="AM14" s="70"/>
-      <c r="AN14" s="70"/>
-      <c r="AO14" s="70"/>
-      <c r="AP14" s="70"/>
-      <c r="AQ14" s="70"/>
-      <c r="AR14" s="70"/>
-      <c r="AS14" s="70"/>
-      <c r="AT14" s="70"/>
-      <c r="AU14" s="70"/>
-      <c r="AV14" s="70"/>
-      <c r="AW14" s="70"/>
-      <c r="AX14" s="71"/>
-      <c r="AY14" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="AZ14" s="73"/>
-      <c r="BA14" s="73"/>
-      <c r="BB14" s="73"/>
-      <c r="BC14" s="73"/>
-      <c r="BD14" s="74"/>
+      <c r="AK14" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="75"/>
+      <c r="AQ14" s="75"/>
+      <c r="AR14" s="75"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="75"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="75"/>
+      <c r="AX14" s="76"/>
+      <c r="AY14" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ14" s="63"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="63"/>
+      <c r="BC14" s="63"/>
+      <c r="BD14" s="64"/>
       <c r="BE14" s="34"/>
       <c r="BF14" s="35"/>
       <c r="BG14" s="38" t="s">
@@ -3342,12 +3245,12 @@
       </c>
       <c r="BH14" s="35"/>
       <c r="BI14" s="36"/>
-      <c r="BJ14" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="BK14" s="82"/>
-      <c r="BL14" s="82"/>
-      <c r="BM14" s="83"/>
+      <c r="BJ14" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK14" s="73"/>
+      <c r="BL14" s="73"/>
+      <c r="BM14" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -3410,10 +3313,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A2:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3421,618 +3324,311 @@
     <col min="1" max="1" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="39" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="36">
+      <c r="A3" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40" t="s">
+      <c r="H3" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="I3" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="J3" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="K3" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="L3" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="M3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="N3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="O3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="P3" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="Q3" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="R3" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="S3" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="B4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="B5" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="B6" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="43" t="s">
+      <c r="E6" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="43" t="s">
+      <c r="P6" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="B7" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" s="45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="39"/>
-      <c r="B5" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="46" t="s">
+      <c r="F7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="R7" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="S7" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="46">
-        <v>0</v>
-      </c>
-      <c r="F5" s="46">
-        <v>1</v>
-      </c>
-      <c r="G5" s="46">
-        <v>1</v>
-      </c>
-      <c r="H5" s="46">
-        <v>25</v>
-      </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="49"/>
-    </row>
-    <row r="8" spans="1:20" ht="36">
-      <c r="A8" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="117" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="117" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="S8" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="T8" s="117" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="B9" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" s="118" t="s">
-        <v>113</v>
-      </c>
-      <c r="I9" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" s="118" t="s">
-        <v>115</v>
-      </c>
-      <c r="M9" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="N9" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="O9" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q9" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="R9" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="S9" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="T9" s="118" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="36">
-      <c r="A12" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="117" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="117" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="117" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="117" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="S12" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="T12" s="117" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="B13" s="118" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="118" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="118" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="K13" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="L13" s="118" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" s="118" t="s">
-        <v>106</v>
-      </c>
-      <c r="O13" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="P13" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q13" s="118" t="s">
-        <v>109</v>
-      </c>
-      <c r="R13" s="118" t="s">
-        <v>109</v>
-      </c>
-      <c r="S13" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="T13" s="119" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="B14" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="118" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="118" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="118" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="N14" s="118" t="s">
-        <v>116</v>
-      </c>
-      <c r="O14" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="P14" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="R14" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="S14" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="T14" s="118" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="B15" s="118" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="118" t="s">
+      <c r="T7" s="42" t="s">
         <v>85</v>
-      </c>
-      <c r="E15" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="118" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="118" t="s">
-        <v>101</v>
-      </c>
-      <c r="J15" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="K15" s="118" t="s">
-        <v>99</v>
-      </c>
-      <c r="L15" s="118" t="s">
-        <v>115</v>
-      </c>
-      <c r="M15" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" s="118" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="P15" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q15" s="118" t="s">
-        <v>109</v>
-      </c>
-      <c r="R15" s="118" t="s">
-        <v>109</v>
-      </c>
-      <c r="S15" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="T15" s="119" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="B16" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="118" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="118" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" s="118" t="s">
-        <v>129</v>
-      </c>
-      <c r="K16" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="M16" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="N16" s="118" t="s">
-        <v>132</v>
-      </c>
-      <c r="O16" s="118" t="s">
-        <v>107</v>
-      </c>
-      <c r="P16" s="118" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q16" s="118" t="s">
-        <v>134</v>
-      </c>
-      <c r="R16" s="118" t="s">
-        <v>134</v>
-      </c>
-      <c r="S16" s="119" t="s">
-        <v>110</v>
-      </c>
-      <c r="T16" s="119" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <hyperlinks>
-    <hyperlink ref="P5" r:id="rId1" xr:uid="{4B74F492-57DB-4E40-A7F3-27A064708330}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報リスト機能.xlsx
+++ b/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報リスト機能.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E70A25-AC8B-4B25-B540-B913F3F6DF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A1DB82-DF65-4498-A32C-2E4FA2B38CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="0" windowWidth="23565" windowHeight="15330" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -1018,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,18 +1189,144 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1208,135 +1334,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3" xr:uid="{B1807F42-9FF7-4250-83E6-08FCFA41AC9E}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_0.業務フロー表紙" xfId="2" xr:uid="{2D303322-CCD0-40E2-B021-1227DA5DE9FA}"/>
     <cellStyle name="標準_0001_基本フォーマット" xfId="4" xr:uid="{EB3BE51B-204A-4B8D-B2D9-DD45E7ECAAC7}"/>
     <cellStyle name="標準_１．業務処理内容説明書" xfId="5" xr:uid="{1B96B966-3AD8-4E7F-A56C-7C504240ECE7}"/>
@@ -1358,6 +1367,148 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A818B8-416C-E0DD-BF3F-F82008FB7C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9353550" y="3352800"/>
+          <a:ext cx="2838450" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64149"/>
+            <a:gd name="adj2" fmla="val 6403"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>退職社員がリストされない事を追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F24B04-5EA6-85C8-DA17-9E831AE8EDAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9239250" y="2514600"/>
+          <a:ext cx="2838450" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -64149"/>
+            <a:gd name="adj2" fmla="val 6403"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>在職社員氏名が表示されるにしてください</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1624,12 +1775,12 @@
       <selection activeCell="G23" sqref="G23:R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.19921875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.19921875" style="11"/>
-    <col min="22" max="22" width="5.19921875" style="15"/>
-    <col min="23" max="23" width="5.19921875" style="11"/>
-    <col min="24" max="16384" width="5.19921875" style="15"/>
+    <col min="1" max="21" width="5.25" style="11"/>
+    <col min="22" max="22" width="5.25" style="15"/>
+    <col min="23" max="23" width="5.25" style="11"/>
+    <col min="24" max="16384" width="5.25" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1">
@@ -1707,7 +1858,7 @@
       <c r="A13" s="5"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="14" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A14" s="5"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1763,7 +1914,7 @@
       <c r="R16" s="61"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="17" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A17" s="5"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1781,7 +1932,7 @@
       <c r="R17" s="8"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="18" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1801,7 +1952,7 @@
       <c r="R18" s="46"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="19" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1821,7 +1972,7 @@
       <c r="R19" s="49"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="20" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1839,7 +1990,7 @@
       <c r="R20" s="52"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="21" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A21" s="5"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1877,7 +2028,7 @@
       <c r="R22" s="54"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="23" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1897,7 +2048,7 @@
       <c r="R23" s="57"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="24" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1915,7 +2066,7 @@
       <c r="R24" s="60"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="25" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A25" s="5"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1933,7 +2084,7 @@
       <c r="R25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.2">
+    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.5">
       <c r="A26" s="5"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -2127,14 +2278,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="16" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="58.59765625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="8.19921875" style="16"/>
+    <col min="3" max="3" width="58.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.25" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2145,7 +2296,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1">
+    <row r="3" spans="2:5" ht="19.5" thickBot="1">
       <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
@@ -2159,7 +2310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="18.600000000000001" thickTop="1">
+    <row r="4" spans="2:5" ht="19.5" thickTop="1">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -2255,17 +2406,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P4" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11:AJ11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="BP11" sqref="BP11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="10" width="2.09765625" customWidth="1"/>
-    <col min="11" max="11" width="14.796875" customWidth="1"/>
-    <col min="12" max="64" width="2.09765625" customWidth="1"/>
-    <col min="65" max="65" width="4.69921875" customWidth="1"/>
-    <col min="66" max="66" width="2.09765625" customWidth="1"/>
+    <col min="1" max="10" width="2.125" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="64" width="2.125" customWidth="1"/>
+    <col min="65" max="65" width="4.75" customWidth="1"/>
+    <col min="66" max="66" width="2.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="28" customFormat="1" ht="13.5" customHeight="1">
@@ -2336,34 +2487,34 @@
       <c r="BM1" s="27"/>
     </row>
     <row r="2" spans="1:65" s="28" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
       <c r="AQ2" s="29"/>
       <c r="AR2" s="29"/>
       <c r="AS2" s="29"/>
@@ -2389,32 +2540,32 @@
       <c r="BM2" s="27"/>
     </row>
     <row r="3" spans="1:65" s="28" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
       <c r="AQ3" s="29"/>
       <c r="AR3" s="29"/>
       <c r="AS3" s="29"/>
@@ -2440,62 +2591,62 @@
       <c r="BM3" s="31"/>
     </row>
     <row r="4" spans="1:65" s="28" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="104" t="s">
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="107" t="s">
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="108"/>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="108"/>
-      <c r="AL4" s="108"/>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="108"/>
-      <c r="AR4" s="108"/>
-      <c r="AS4" s="108"/>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="109"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="74"/>
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="75"/>
       <c r="AW4" s="80" t="s">
         <v>9</v>
       </c>
@@ -2595,89 +2746,89 @@
       <c r="BL5" s="91"/>
       <c r="BM5" s="33"/>
     </row>
-    <row r="6" spans="1:65" ht="18.600000000000001" thickTop="1"/>
+    <row r="6" spans="1:65" ht="19.5" thickTop="1"/>
     <row r="7" spans="1:65">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77" t="s">
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="62" t="s">
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="62" t="s">
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="78"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="79"/>
-      <c r="AY7" s="62" t="s">
+      <c r="AL7" s="77"/>
+      <c r="AM7" s="77"/>
+      <c r="AN7" s="77"/>
+      <c r="AO7" s="77"/>
+      <c r="AP7" s="77"/>
+      <c r="AQ7" s="77"/>
+      <c r="AR7" s="77"/>
+      <c r="AS7" s="77"/>
+      <c r="AT7" s="77"/>
+      <c r="AU7" s="77"/>
+      <c r="AV7" s="77"/>
+      <c r="AW7" s="77"/>
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="AZ7" s="78"/>
-      <c r="BA7" s="78"/>
-      <c r="BB7" s="78"/>
-      <c r="BC7" s="78"/>
-      <c r="BD7" s="79"/>
-      <c r="BE7" s="62" t="s">
+      <c r="AZ7" s="77"/>
+      <c r="BA7" s="77"/>
+      <c r="BB7" s="77"/>
+      <c r="BC7" s="77"/>
+      <c r="BD7" s="78"/>
+      <c r="BE7" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="BF7" s="78"/>
-      <c r="BG7" s="78"/>
-      <c r="BH7" s="78"/>
-      <c r="BI7" s="79"/>
-      <c r="BJ7" s="62" t="s">
+      <c r="BF7" s="77"/>
+      <c r="BG7" s="77"/>
+      <c r="BH7" s="77"/>
+      <c r="BI7" s="78"/>
+      <c r="BJ7" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="BK7" s="78"/>
-      <c r="BL7" s="78"/>
-      <c r="BM7" s="79"/>
+      <c r="BK7" s="77"/>
+      <c r="BL7" s="77"/>
+      <c r="BM7" s="78"/>
     </row>
     <row r="8" spans="1:65" ht="39" customHeight="1">
       <c r="A8" s="34"/>
@@ -2685,25 +2836,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="36"/>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="62" t="s">
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="112"/>
       <c r="S8" s="37" t="s">
         <v>30</v>
       </c>
@@ -2740,14 +2891,14 @@
       <c r="AV8" s="35"/>
       <c r="AW8" s="35"/>
       <c r="AX8" s="36"/>
-      <c r="AY8" s="71" t="s">
+      <c r="AY8" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="64"/>
+      <c r="AZ8" s="96"/>
+      <c r="BA8" s="96"/>
+      <c r="BB8" s="96"/>
+      <c r="BC8" s="96"/>
+      <c r="BD8" s="97"/>
       <c r="BE8" s="34"/>
       <c r="BF8" s="35"/>
       <c r="BG8" s="38" t="s">
@@ -2755,14 +2906,14 @@
       </c>
       <c r="BH8" s="35"/>
       <c r="BI8" s="36"/>
-      <c r="BJ8" s="72" t="s">
+      <c r="BJ8" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="BK8" s="73"/>
-      <c r="BL8" s="73"/>
-      <c r="BM8" s="74"/>
-    </row>
-    <row r="9" spans="1:65" ht="40.200000000000003" customHeight="1">
+      <c r="BK8" s="100"/>
+      <c r="BL8" s="100"/>
+      <c r="BM8" s="101"/>
+    </row>
+    <row r="9" spans="1:65" ht="40.15" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="35">
         <v>2</v>
@@ -2785,26 +2936,26 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
       <c r="R9" s="36"/>
-      <c r="S9" s="65" t="s">
+      <c r="S9" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="76"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="103"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="104"/>
       <c r="AK9" s="37" t="s">
         <v>36</v>
       </c>
@@ -2821,14 +2972,14 @@
       <c r="AV9" s="35"/>
       <c r="AW9" s="35"/>
       <c r="AX9" s="36"/>
-      <c r="AY9" s="71" t="s">
+      <c r="AY9" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="AZ9" s="63"/>
-      <c r="BA9" s="63"/>
-      <c r="BB9" s="63"/>
-      <c r="BC9" s="63"/>
-      <c r="BD9" s="64"/>
+      <c r="AZ9" s="96"/>
+      <c r="BA9" s="96"/>
+      <c r="BB9" s="96"/>
+      <c r="BC9" s="96"/>
+      <c r="BD9" s="97"/>
       <c r="BE9" s="34"/>
       <c r="BF9" s="35"/>
       <c r="BG9" s="38" t="s">
@@ -2836,14 +2987,14 @@
       </c>
       <c r="BH9" s="35"/>
       <c r="BI9" s="36"/>
-      <c r="BJ9" s="72" t="s">
+      <c r="BJ9" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="BK9" s="73"/>
-      <c r="BL9" s="73"/>
-      <c r="BM9" s="74"/>
-    </row>
-    <row r="10" spans="1:65" ht="32.4" customHeight="1">
+      <c r="BK9" s="100"/>
+      <c r="BL9" s="100"/>
+      <c r="BM9" s="101"/>
+    </row>
+    <row r="10" spans="1:65" ht="60.75" customHeight="1">
       <c r="A10" s="34"/>
       <c r="B10" s="35">
         <v>3</v>
@@ -2886,30 +3037,30 @@
       <c r="AH10" s="35"/>
       <c r="AI10" s="35"/>
       <c r="AJ10" s="36"/>
-      <c r="AK10" s="65" t="s">
+      <c r="AK10" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="75"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="76"/>
-      <c r="AY10" s="71" t="s">
+      <c r="AL10" s="103"/>
+      <c r="AM10" s="103"/>
+      <c r="AN10" s="103"/>
+      <c r="AO10" s="103"/>
+      <c r="AP10" s="103"/>
+      <c r="AQ10" s="103"/>
+      <c r="AR10" s="103"/>
+      <c r="AS10" s="103"/>
+      <c r="AT10" s="103"/>
+      <c r="AU10" s="103"/>
+      <c r="AV10" s="103"/>
+      <c r="AW10" s="103"/>
+      <c r="AX10" s="104"/>
+      <c r="AY10" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="AZ10" s="63"/>
-      <c r="BA10" s="63"/>
-      <c r="BB10" s="63"/>
-      <c r="BC10" s="63"/>
-      <c r="BD10" s="64"/>
+      <c r="AZ10" s="96"/>
+      <c r="BA10" s="96"/>
+      <c r="BB10" s="96"/>
+      <c r="BC10" s="96"/>
+      <c r="BD10" s="97"/>
       <c r="BE10" s="34"/>
       <c r="BF10" s="35"/>
       <c r="BG10" s="38" t="s">
@@ -2917,14 +3068,14 @@
       </c>
       <c r="BH10" s="35"/>
       <c r="BI10" s="36"/>
-      <c r="BJ10" s="72" t="s">
+      <c r="BJ10" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="BK10" s="73"/>
-      <c r="BL10" s="73"/>
-      <c r="BM10" s="74"/>
-    </row>
-    <row r="11" spans="1:65" ht="43.8" customHeight="1">
+      <c r="BK10" s="100"/>
+      <c r="BL10" s="100"/>
+      <c r="BM10" s="101"/>
+    </row>
+    <row r="11" spans="1:65" ht="43.9" customHeight="1">
       <c r="A11" s="34"/>
       <c r="B11" s="35">
         <v>4</v>
@@ -2940,59 +3091,59 @@
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="63"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="65" t="s">
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="102" t="s">
         <v>114</v>
       </c>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="66"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="66"/>
-      <c r="AD11" s="66"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="66"/>
-      <c r="AH11" s="66"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="68" t="s">
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="108"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="108"/>
+      <c r="AC11" s="108"/>
+      <c r="AD11" s="108"/>
+      <c r="AE11" s="108"/>
+      <c r="AF11" s="108"/>
+      <c r="AG11" s="108"/>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="108"/>
+      <c r="AJ11" s="109"/>
+      <c r="AK11" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="70"/>
-      <c r="AY11" s="71" t="s">
+      <c r="AL11" s="106"/>
+      <c r="AM11" s="106"/>
+      <c r="AN11" s="106"/>
+      <c r="AO11" s="106"/>
+      <c r="AP11" s="106"/>
+      <c r="AQ11" s="106"/>
+      <c r="AR11" s="106"/>
+      <c r="AS11" s="106"/>
+      <c r="AT11" s="106"/>
+      <c r="AU11" s="106"/>
+      <c r="AV11" s="106"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="107"/>
+      <c r="AY11" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="AZ11" s="63"/>
-      <c r="BA11" s="63"/>
-      <c r="BB11" s="63"/>
-      <c r="BC11" s="63"/>
-      <c r="BD11" s="64"/>
+      <c r="AZ11" s="96"/>
+      <c r="BA11" s="96"/>
+      <c r="BB11" s="96"/>
+      <c r="BC11" s="96"/>
+      <c r="BD11" s="97"/>
       <c r="BE11" s="34"/>
       <c r="BF11" s="35"/>
       <c r="BG11" s="38" t="s">
@@ -3000,14 +3151,14 @@
       </c>
       <c r="BH11" s="35"/>
       <c r="BI11" s="36"/>
-      <c r="BJ11" s="72" t="s">
+      <c r="BJ11" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="BK11" s="73"/>
-      <c r="BL11" s="73"/>
-      <c r="BM11" s="74"/>
-    </row>
-    <row r="12" spans="1:65" ht="43.8" customHeight="1">
+      <c r="BK11" s="100"/>
+      <c r="BL11" s="100"/>
+      <c r="BM11" s="101"/>
+    </row>
+    <row r="12" spans="1:65" ht="43.9" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" s="35">
         <v>5</v>
@@ -3023,59 +3174,59 @@
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="36"/>
-      <c r="L12" s="62" t="s">
+      <c r="L12" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="65" t="s">
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="112"/>
+      <c r="S12" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="75"/>
-      <c r="AG12" s="75"/>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="68" t="s">
+      <c r="T12" s="103"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="103"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="103"/>
+      <c r="AG12" s="103"/>
+      <c r="AH12" s="103"/>
+      <c r="AI12" s="103"/>
+      <c r="AJ12" s="104"/>
+      <c r="AK12" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="69"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="70"/>
-      <c r="AY12" s="71" t="s">
+      <c r="AL12" s="106"/>
+      <c r="AM12" s="106"/>
+      <c r="AN12" s="106"/>
+      <c r="AO12" s="106"/>
+      <c r="AP12" s="106"/>
+      <c r="AQ12" s="106"/>
+      <c r="AR12" s="106"/>
+      <c r="AS12" s="106"/>
+      <c r="AT12" s="106"/>
+      <c r="AU12" s="106"/>
+      <c r="AV12" s="106"/>
+      <c r="AW12" s="106"/>
+      <c r="AX12" s="107"/>
+      <c r="AY12" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="AZ12" s="63"/>
-      <c r="BA12" s="63"/>
-      <c r="BB12" s="63"/>
-      <c r="BC12" s="63"/>
-      <c r="BD12" s="64"/>
+      <c r="AZ12" s="96"/>
+      <c r="BA12" s="96"/>
+      <c r="BB12" s="96"/>
+      <c r="BC12" s="96"/>
+      <c r="BD12" s="97"/>
       <c r="BE12" s="34"/>
       <c r="BF12" s="35"/>
       <c r="BG12" s="38" t="s">
@@ -3083,12 +3234,12 @@
       </c>
       <c r="BH12" s="35"/>
       <c r="BI12" s="36"/>
-      <c r="BJ12" s="72" t="s">
+      <c r="BJ12" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="BK12" s="73"/>
-      <c r="BL12" s="73"/>
-      <c r="BM12" s="74"/>
+      <c r="BK12" s="100"/>
+      <c r="BL12" s="100"/>
+      <c r="BM12" s="101"/>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" s="34"/>
@@ -3149,14 +3300,14 @@
       <c r="AV13" s="35"/>
       <c r="AW13" s="35"/>
       <c r="AX13" s="36"/>
-      <c r="AY13" s="71" t="s">
+      <c r="AY13" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="AZ13" s="63"/>
-      <c r="BA13" s="63"/>
-      <c r="BB13" s="63"/>
-      <c r="BC13" s="63"/>
-      <c r="BD13" s="64"/>
+      <c r="AZ13" s="96"/>
+      <c r="BA13" s="96"/>
+      <c r="BB13" s="96"/>
+      <c r="BC13" s="96"/>
+      <c r="BD13" s="97"/>
       <c r="BE13" s="34"/>
       <c r="BF13" s="35"/>
       <c r="BG13" s="38" t="s">
@@ -3164,14 +3315,14 @@
       </c>
       <c r="BH13" s="35"/>
       <c r="BI13" s="36"/>
-      <c r="BJ13" s="72" t="s">
+      <c r="BJ13" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="BK13" s="73"/>
-      <c r="BL13" s="73"/>
-      <c r="BM13" s="74"/>
-    </row>
-    <row r="14" spans="1:65" ht="31.8" customHeight="1">
+      <c r="BK13" s="100"/>
+      <c r="BL13" s="100"/>
+      <c r="BM13" s="101"/>
+    </row>
+    <row r="14" spans="1:65" ht="54.75" customHeight="1">
       <c r="A14" s="34"/>
       <c r="B14" s="35">
         <v>7</v>
@@ -3214,30 +3365,30 @@
       <c r="AH14" s="35"/>
       <c r="AI14" s="35"/>
       <c r="AJ14" s="36"/>
-      <c r="AK14" s="65" t="s">
+      <c r="AK14" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="AL14" s="75"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="75"/>
-      <c r="AP14" s="75"/>
-      <c r="AQ14" s="75"/>
-      <c r="AR14" s="75"/>
-      <c r="AS14" s="75"/>
-      <c r="AT14" s="75"/>
-      <c r="AU14" s="75"/>
-      <c r="AV14" s="75"/>
-      <c r="AW14" s="75"/>
-      <c r="AX14" s="76"/>
-      <c r="AY14" s="71" t="s">
+      <c r="AL14" s="103"/>
+      <c r="AM14" s="103"/>
+      <c r="AN14" s="103"/>
+      <c r="AO14" s="103"/>
+      <c r="AP14" s="103"/>
+      <c r="AQ14" s="103"/>
+      <c r="AR14" s="103"/>
+      <c r="AS14" s="103"/>
+      <c r="AT14" s="103"/>
+      <c r="AU14" s="103"/>
+      <c r="AV14" s="103"/>
+      <c r="AW14" s="103"/>
+      <c r="AX14" s="104"/>
+      <c r="AY14" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="AZ14" s="63"/>
-      <c r="BA14" s="63"/>
-      <c r="BB14" s="63"/>
-      <c r="BC14" s="63"/>
-      <c r="BD14" s="64"/>
+      <c r="AZ14" s="96"/>
+      <c r="BA14" s="96"/>
+      <c r="BB14" s="96"/>
+      <c r="BC14" s="96"/>
+      <c r="BD14" s="97"/>
       <c r="BE14" s="34"/>
       <c r="BF14" s="35"/>
       <c r="BG14" s="38" t="s">
@@ -3245,20 +3396,44 @@
       </c>
       <c r="BH14" s="35"/>
       <c r="BI14" s="36"/>
-      <c r="BJ14" s="72" t="s">
+      <c r="BJ14" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="BK14" s="73"/>
-      <c r="BL14" s="73"/>
-      <c r="BM14" s="74"/>
+      <c r="BK14" s="100"/>
+      <c r="BL14" s="100"/>
+      <c r="BM14" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:AJ11"/>
+    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="AY13:BD13"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="BJ13:BM13"/>
+    <mergeCell ref="BJ14:BM14"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="S9:AJ9"/>
+    <mergeCell ref="AY9:BD9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="S12:AJ12"/>
+    <mergeCell ref="AK12:AX12"/>
+    <mergeCell ref="AY12:BD12"/>
+    <mergeCell ref="BJ12:BM12"/>
+    <mergeCell ref="AK14:AX14"/>
+    <mergeCell ref="AY14:BD14"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="AY7:BD7"/>
+    <mergeCell ref="AK7:AX7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="AY8:BD8"/>
     <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="BE7:BI7"/>
     <mergeCell ref="A7:C7"/>
@@ -3275,39 +3450,16 @@
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BL5"/>
     <mergeCell ref="S7:AJ7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="AY7:BD7"/>
-    <mergeCell ref="AK7:AX7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="BJ13:BM13"/>
-    <mergeCell ref="BJ14:BM14"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="S9:AJ9"/>
-    <mergeCell ref="AY9:BD9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="S12:AJ12"/>
-    <mergeCell ref="AK12:AX12"/>
-    <mergeCell ref="AY12:BD12"/>
-    <mergeCell ref="BJ12:BM12"/>
-    <mergeCell ref="AK14:AX14"/>
-    <mergeCell ref="AY14:BD14"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="AK11:AX11"/>
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="AY13:BD13"/>
-    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3316,12 +3468,12 @@
   <dimension ref="A2:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20">

--- a/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報リスト機能.xlsx
+++ b/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報リスト機能.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A1DB82-DF65-4498-A32C-2E4FA2B38CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8521314-84F0-4EEF-97ED-A5C4D8EDBB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="0" windowWidth="23565" windowHeight="15330" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="124">
   <si>
     <t>No</t>
   </si>
@@ -224,13 +224,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>セレクトボダン押す</t>
-  </si>
-  <si>
-    <t>検索</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>新規登録</t>
     <rPh sb="2" eb="4">
       <t>トウロク</t>
@@ -352,33 +345,21 @@
     <t>personNumber</t>
   </si>
   <si>
-    <t>E00001</t>
-  </si>
-  <si>
     <t>nguyen</t>
   </si>
   <si>
-    <t>827ccb0eea8a706c4c34a16891f84e7b</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>19860101</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
     <t>20190101</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2310851</t>
   </si>
   <si>
@@ -400,30 +381,15 @@
     <t>« NULL »</t>
   </si>
   <si>
-    <t>E00002</t>
-  </si>
-  <si>
     <t>1368ba1ab6ed38bb1f26f36673739d54</t>
   </si>
   <si>
-    <t>2019-06-05</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>2310859</t>
   </si>
   <si>
     <t>07012344322</t>
   </si>
   <si>
-    <t>20240417</t>
-  </si>
-  <si>
-    <t>111111111113</t>
-  </si>
-  <si>
     <t>E00003</t>
   </si>
   <si>
@@ -442,9 +408,6 @@
     <t>E00004</t>
   </si>
   <si>
-    <t>nguye</t>
-  </si>
-  <si>
     <t>2210</t>
   </si>
   <si>
@@ -470,14 +433,6 @@
   </si>
   <si>
     <t>20240426</t>
-  </si>
-  <si>
-    <t>テストデータNo.１</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>テストデータNo.1に書いてるデータが表示される</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>初期表示社員情報変更画面</t>
@@ -490,46 +445,127 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>セレクトボックスのオプションから社員氏名が表示</t>
-    <rPh sb="16" eb="18">
+    <t>在職社員氏名のみが表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ザイショク</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シャインシメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ソン</t>
+  </si>
+  <si>
+    <t>19990902</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20240530</t>
+  </si>
+  <si>
+    <t>123131231231</t>
+  </si>
+  <si>
+    <t>20011022</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>20240303</t>
+  </si>
+  <si>
+    <t>スーツ</t>
+  </si>
+  <si>
+    <t>テストデータNo.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>社員のセレクトボックスのプルダウンメニューボタンをクリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストデータNo.3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>条件検索</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E00002</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">社員にE00002を選択し、「検索」ボタンをクリック
+</t>
+    <rPh sb="0" eb="2">
       <t>シャイン</t>
     </rPh>
-    <rPh sb="18" eb="20">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>①社員氏名を選択
-②「検索」ボダン押す</t>
-    <rPh sb="1" eb="3">
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「employeeIDE00002のみのデータが一覧に表示される」</t>
+    <rPh sb="24" eb="26">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストデータNo.4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E00001</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>退職した社員がリストされない（EmployeeIDE00001が表示しない）</t>
+    <rPh sb="0" eb="2">
+      <t>タイショク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>シャイン</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>選択された社員氏名の情報が表示する</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="32" eb="34">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストデータNo.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.2,No.3,No.4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.1,No.2,No.3,No.4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.4</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1018,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,15 +1327,24 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,19 +1378,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3" xr:uid="{B1807F42-9FF7-4250-83E6-08FCFA41AC9E}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_0.業務フロー表紙" xfId="2" xr:uid="{2D303322-CCD0-40E2-B021-1227DA5DE9FA}"/>
     <cellStyle name="標準_0001_基本フォーマット" xfId="4" xr:uid="{EB3BE51B-204A-4B8D-B2D9-DD45E7ECAAC7}"/>
     <cellStyle name="標準_１．業務処理内容説明書" xfId="5" xr:uid="{1B96B966-3AD8-4E7F-A56C-7C504240ECE7}"/>
@@ -1367,148 +1409,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A818B8-416C-E0DD-BF3F-F82008FB7C5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9353550" y="3352800"/>
-          <a:ext cx="2838450" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -64149"/>
-            <a:gd name="adj2" fmla="val 6403"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>退職社員がリストされない事を追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>561975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F24B04-5EA6-85C8-DA17-9E831AE8EDAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9239250" y="2514600"/>
-          <a:ext cx="2838450" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -64149"/>
-            <a:gd name="adj2" fmla="val 6403"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>在職社員氏名が表示されるにしてください</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1775,12 +1675,12 @@
       <selection activeCell="G23" sqref="G23:R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.19921875" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.25" style="11"/>
-    <col min="22" max="22" width="5.25" style="15"/>
-    <col min="23" max="23" width="5.25" style="11"/>
-    <col min="24" max="16384" width="5.25" style="15"/>
+    <col min="1" max="21" width="5.19921875" style="11"/>
+    <col min="22" max="22" width="5.19921875" style="15"/>
+    <col min="23" max="23" width="5.19921875" style="11"/>
+    <col min="24" max="16384" width="5.19921875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1">
@@ -1858,7 +1758,7 @@
       <c r="A13" s="5"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="14" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A14" s="5"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1914,7 +1814,7 @@
       <c r="R16" s="61"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A17" s="5"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1932,7 +1832,7 @@
       <c r="R17" s="8"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="18" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1952,7 +1852,7 @@
       <c r="R18" s="46"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1972,7 +1872,7 @@
       <c r="R19" s="49"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1990,7 +1890,7 @@
       <c r="R20" s="52"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A21" s="5"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2028,7 +1928,7 @@
       <c r="R22" s="54"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="23" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -2048,7 +1948,7 @@
       <c r="R23" s="57"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="24" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2066,7 +1966,7 @@
       <c r="R24" s="60"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="4" customFormat="1" ht="16.5">
+    <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A25" s="5"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -2084,7 +1984,7 @@
       <c r="R25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.5">
+    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.2">
       <c r="A26" s="5"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -2278,14 +2178,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="16" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="58.625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="8.25" style="16"/>
+    <col min="3" max="3" width="58.59765625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.19921875" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2296,7 +2196,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="2:5" ht="19.5" thickBot="1">
+    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1">
       <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="19.5" thickTop="1">
+    <row r="4" spans="2:5" ht="18.600000000000001" thickTop="1">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -2406,17 +2306,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="BP11" sqref="BP11"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="10" width="2.125" customWidth="1"/>
-    <col min="11" max="11" width="14.75" customWidth="1"/>
-    <col min="12" max="64" width="2.125" customWidth="1"/>
-    <col min="65" max="65" width="4.75" customWidth="1"/>
-    <col min="66" max="66" width="2.125" customWidth="1"/>
+    <col min="1" max="10" width="2.09765625" customWidth="1"/>
+    <col min="11" max="11" width="14.69921875" customWidth="1"/>
+    <col min="12" max="64" width="2.09765625" customWidth="1"/>
+    <col min="65" max="65" width="4.69921875" customWidth="1"/>
+    <col min="66" max="66" width="2.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="28" customFormat="1" ht="13.5" customHeight="1">
@@ -2746,7 +2646,7 @@
       <c r="BL5" s="91"/>
       <c r="BM5" s="33"/>
     </row>
-    <row r="6" spans="1:65" ht="19.5" thickTop="1"/>
+    <row r="6" spans="1:65" ht="18.600000000000001" thickTop="1"/>
     <row r="7" spans="1:65">
       <c r="A7" s="79" t="s">
         <v>14</v>
@@ -2836,25 +2736,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="36"/>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="110" t="s">
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="111"/>
-      <c r="N8" s="111"/>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="112"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="98"/>
       <c r="S8" s="37" t="s">
         <v>30</v>
       </c>
@@ -2891,14 +2791,14 @@
       <c r="AV8" s="35"/>
       <c r="AW8" s="35"/>
       <c r="AX8" s="36"/>
-      <c r="AY8" s="98" t="s">
+      <c r="AY8" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="AZ8" s="96"/>
-      <c r="BA8" s="96"/>
-      <c r="BB8" s="96"/>
-      <c r="BC8" s="96"/>
-      <c r="BD8" s="97"/>
+      <c r="AZ8" s="100"/>
+      <c r="BA8" s="100"/>
+      <c r="BB8" s="100"/>
+      <c r="BC8" s="100"/>
+      <c r="BD8" s="101"/>
       <c r="BE8" s="34"/>
       <c r="BF8" s="35"/>
       <c r="BG8" s="38" t="s">
@@ -2906,21 +2806,21 @@
       </c>
       <c r="BH8" s="35"/>
       <c r="BI8" s="36"/>
-      <c r="BJ8" s="99" t="s">
+      <c r="BJ8" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="BK8" s="100"/>
-      <c r="BL8" s="100"/>
-      <c r="BM8" s="101"/>
-    </row>
-    <row r="9" spans="1:65" ht="40.15" customHeight="1">
+      <c r="BK8" s="103"/>
+      <c r="BL8" s="103"/>
+      <c r="BM8" s="104"/>
+    </row>
+    <row r="9" spans="1:65" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="34"/>
       <c r="B9" s="35">
         <v>2</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="37" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -2936,26 +2836,26 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
       <c r="R9" s="36"/>
-      <c r="S9" s="102" t="s">
+      <c r="S9" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="103"/>
-      <c r="AF9" s="103"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="104"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="106"/>
+      <c r="AI9" s="106"/>
+      <c r="AJ9" s="107"/>
       <c r="AK9" s="37" t="s">
         <v>36</v>
       </c>
@@ -2972,14 +2872,14 @@
       <c r="AV9" s="35"/>
       <c r="AW9" s="35"/>
       <c r="AX9" s="36"/>
-      <c r="AY9" s="98" t="s">
+      <c r="AY9" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="AZ9" s="96"/>
-      <c r="BA9" s="96"/>
-      <c r="BB9" s="96"/>
-      <c r="BC9" s="96"/>
-      <c r="BD9" s="97"/>
+      <c r="AZ9" s="100"/>
+      <c r="BA9" s="100"/>
+      <c r="BB9" s="100"/>
+      <c r="BC9" s="100"/>
+      <c r="BD9" s="101"/>
       <c r="BE9" s="34"/>
       <c r="BF9" s="35"/>
       <c r="BG9" s="38" t="s">
@@ -2987,12 +2887,12 @@
       </c>
       <c r="BH9" s="35"/>
       <c r="BI9" s="36"/>
-      <c r="BJ9" s="99" t="s">
+      <c r="BJ9" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="BK9" s="100"/>
-      <c r="BL9" s="100"/>
-      <c r="BM9" s="101"/>
+      <c r="BK9" s="103"/>
+      <c r="BL9" s="103"/>
+      <c r="BM9" s="104"/>
     </row>
     <row r="10" spans="1:65" ht="60.75" customHeight="1">
       <c r="A10" s="34"/>
@@ -3010,57 +2910,59 @@
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="35"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL10" s="103"/>
-      <c r="AM10" s="103"/>
-      <c r="AN10" s="103"/>
-      <c r="AO10" s="103"/>
-      <c r="AP10" s="103"/>
-      <c r="AQ10" s="103"/>
-      <c r="AR10" s="103"/>
-      <c r="AS10" s="103"/>
-      <c r="AT10" s="103"/>
-      <c r="AU10" s="103"/>
-      <c r="AV10" s="103"/>
-      <c r="AW10" s="103"/>
-      <c r="AX10" s="104"/>
-      <c r="AY10" s="98" t="s">
+      <c r="L10" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="105" t="s">
+        <v>111</v>
+      </c>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="106"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="106"/>
+      <c r="AI10" s="106"/>
+      <c r="AJ10" s="107"/>
+      <c r="AK10" s="105" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL10" s="106"/>
+      <c r="AM10" s="106"/>
+      <c r="AN10" s="106"/>
+      <c r="AO10" s="106"/>
+      <c r="AP10" s="106"/>
+      <c r="AQ10" s="106"/>
+      <c r="AR10" s="106"/>
+      <c r="AS10" s="106"/>
+      <c r="AT10" s="106"/>
+      <c r="AU10" s="106"/>
+      <c r="AV10" s="106"/>
+      <c r="AW10" s="106"/>
+      <c r="AX10" s="107"/>
+      <c r="AY10" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="AZ10" s="96"/>
-      <c r="BA10" s="96"/>
-      <c r="BB10" s="96"/>
-      <c r="BC10" s="96"/>
-      <c r="BD10" s="97"/>
+      <c r="AZ10" s="100"/>
+      <c r="BA10" s="100"/>
+      <c r="BB10" s="100"/>
+      <c r="BC10" s="100"/>
+      <c r="BD10" s="101"/>
       <c r="BE10" s="34"/>
       <c r="BF10" s="35"/>
       <c r="BG10" s="38" t="s">
@@ -3068,21 +2970,21 @@
       </c>
       <c r="BH10" s="35"/>
       <c r="BI10" s="36"/>
-      <c r="BJ10" s="99" t="s">
+      <c r="BJ10" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="BK10" s="100"/>
-      <c r="BL10" s="100"/>
-      <c r="BM10" s="101"/>
-    </row>
-    <row r="11" spans="1:65" ht="43.9" customHeight="1">
+      <c r="BK10" s="103"/>
+      <c r="BL10" s="103"/>
+      <c r="BM10" s="104"/>
+    </row>
+    <row r="11" spans="1:65" ht="72.599999999999994" customHeight="1">
       <c r="A11" s="34"/>
       <c r="B11" s="35">
         <v>4</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="37" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -3091,59 +2993,59 @@
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="102" t="s">
-        <v>114</v>
-      </c>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="108"/>
-      <c r="AB11" s="108"/>
-      <c r="AC11" s="108"/>
-      <c r="AD11" s="108"/>
-      <c r="AE11" s="108"/>
-      <c r="AF11" s="108"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="108"/>
-      <c r="AJ11" s="109"/>
-      <c r="AK11" s="105" t="s">
+      <c r="L11" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="AL11" s="106"/>
-      <c r="AM11" s="106"/>
-      <c r="AN11" s="106"/>
-      <c r="AO11" s="106"/>
-      <c r="AP11" s="106"/>
-      <c r="AQ11" s="106"/>
-      <c r="AR11" s="106"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="106"/>
-      <c r="AU11" s="106"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="107"/>
-      <c r="AY11" s="98" t="s">
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="111"/>
+      <c r="AH11" s="111"/>
+      <c r="AI11" s="111"/>
+      <c r="AJ11" s="112"/>
+      <c r="AK11" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL11" s="109"/>
+      <c r="AM11" s="109"/>
+      <c r="AN11" s="109"/>
+      <c r="AO11" s="109"/>
+      <c r="AP11" s="109"/>
+      <c r="AQ11" s="109"/>
+      <c r="AR11" s="109"/>
+      <c r="AS11" s="109"/>
+      <c r="AT11" s="109"/>
+      <c r="AU11" s="109"/>
+      <c r="AV11" s="109"/>
+      <c r="AW11" s="109"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="AZ11" s="96"/>
-      <c r="BA11" s="96"/>
-      <c r="BB11" s="96"/>
-      <c r="BC11" s="96"/>
-      <c r="BD11" s="97"/>
+      <c r="AZ11" s="100"/>
+      <c r="BA11" s="100"/>
+      <c r="BB11" s="100"/>
+      <c r="BC11" s="100"/>
+      <c r="BD11" s="101"/>
       <c r="BE11" s="34"/>
       <c r="BF11" s="35"/>
       <c r="BG11" s="38" t="s">
@@ -3151,21 +3053,21 @@
       </c>
       <c r="BH11" s="35"/>
       <c r="BI11" s="36"/>
-      <c r="BJ11" s="99" t="s">
+      <c r="BJ11" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="BK11" s="100"/>
-      <c r="BL11" s="100"/>
-      <c r="BM11" s="101"/>
-    </row>
-    <row r="12" spans="1:65" ht="43.9" customHeight="1">
+      <c r="BK11" s="103"/>
+      <c r="BL11" s="103"/>
+      <c r="BM11" s="104"/>
+    </row>
+    <row r="12" spans="1:65" ht="65.400000000000006" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" s="35">
         <v>5</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -3174,59 +3076,59 @@
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="36"/>
-      <c r="L12" s="110" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="112"/>
-      <c r="S12" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="103"/>
-      <c r="AF12" s="103"/>
-      <c r="AG12" s="103"/>
-      <c r="AH12" s="103"/>
-      <c r="AI12" s="103"/>
-      <c r="AJ12" s="104"/>
-      <c r="AK12" s="105" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL12" s="106"/>
-      <c r="AM12" s="106"/>
-      <c r="AN12" s="106"/>
-      <c r="AO12" s="106"/>
-      <c r="AP12" s="106"/>
-      <c r="AQ12" s="106"/>
-      <c r="AR12" s="106"/>
-      <c r="AS12" s="106"/>
-      <c r="AT12" s="106"/>
-      <c r="AU12" s="106"/>
-      <c r="AV12" s="106"/>
-      <c r="AW12" s="106"/>
-      <c r="AX12" s="107"/>
-      <c r="AY12" s="98" t="s">
+      <c r="L12" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="106"/>
+      <c r="AG12" s="106"/>
+      <c r="AH12" s="106"/>
+      <c r="AI12" s="106"/>
+      <c r="AJ12" s="107"/>
+      <c r="AK12" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL12" s="109"/>
+      <c r="AM12" s="109"/>
+      <c r="AN12" s="109"/>
+      <c r="AO12" s="109"/>
+      <c r="AP12" s="109"/>
+      <c r="AQ12" s="109"/>
+      <c r="AR12" s="109"/>
+      <c r="AS12" s="109"/>
+      <c r="AT12" s="109"/>
+      <c r="AU12" s="109"/>
+      <c r="AV12" s="109"/>
+      <c r="AW12" s="109"/>
+      <c r="AX12" s="110"/>
+      <c r="AY12" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="AZ12" s="96"/>
-      <c r="BA12" s="96"/>
-      <c r="BB12" s="96"/>
-      <c r="BC12" s="96"/>
-      <c r="BD12" s="97"/>
+      <c r="AZ12" s="100"/>
+      <c r="BA12" s="100"/>
+      <c r="BB12" s="100"/>
+      <c r="BC12" s="100"/>
+      <c r="BD12" s="101"/>
       <c r="BE12" s="34"/>
       <c r="BF12" s="35"/>
       <c r="BG12" s="38" t="s">
@@ -3234,12 +3136,12 @@
       </c>
       <c r="BH12" s="35"/>
       <c r="BI12" s="36"/>
-      <c r="BJ12" s="99" t="s">
+      <c r="BJ12" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="BK12" s="100"/>
-      <c r="BL12" s="100"/>
-      <c r="BM12" s="101"/>
+      <c r="BK12" s="103"/>
+      <c r="BL12" s="103"/>
+      <c r="BM12" s="104"/>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" s="34"/>
@@ -3248,7 +3150,7 @@
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -3265,7 +3167,7 @@
       <c r="Q13" s="35"/>
       <c r="R13" s="36"/>
       <c r="S13" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
@@ -3285,7 +3187,7 @@
       <c r="AI13" s="35"/>
       <c r="AJ13" s="36"/>
       <c r="AK13" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL13" s="35"/>
       <c r="AM13" s="35"/>
@@ -3300,14 +3202,14 @@
       <c r="AV13" s="35"/>
       <c r="AW13" s="35"/>
       <c r="AX13" s="36"/>
-      <c r="AY13" s="98" t="s">
+      <c r="AY13" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="AZ13" s="96"/>
-      <c r="BA13" s="96"/>
-      <c r="BB13" s="96"/>
-      <c r="BC13" s="96"/>
-      <c r="BD13" s="97"/>
+      <c r="AZ13" s="100"/>
+      <c r="BA13" s="100"/>
+      <c r="BB13" s="100"/>
+      <c r="BC13" s="100"/>
+      <c r="BD13" s="101"/>
       <c r="BE13" s="34"/>
       <c r="BF13" s="35"/>
       <c r="BG13" s="38" t="s">
@@ -3315,12 +3217,12 @@
       </c>
       <c r="BH13" s="35"/>
       <c r="BI13" s="36"/>
-      <c r="BJ13" s="99" t="s">
+      <c r="BJ13" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="BK13" s="100"/>
-      <c r="BL13" s="100"/>
-      <c r="BM13" s="101"/>
+      <c r="BK13" s="103"/>
+      <c r="BL13" s="103"/>
+      <c r="BM13" s="104"/>
     </row>
     <row r="14" spans="1:65" ht="54.75" customHeight="1">
       <c r="A14" s="34"/>
@@ -3329,7 +3231,7 @@
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -3346,7 +3248,7 @@
       <c r="Q14" s="35"/>
       <c r="R14" s="36"/>
       <c r="S14" s="34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
@@ -3365,30 +3267,30 @@
       <c r="AH14" s="35"/>
       <c r="AI14" s="35"/>
       <c r="AJ14" s="36"/>
-      <c r="AK14" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL14" s="103"/>
-      <c r="AM14" s="103"/>
-      <c r="AN14" s="103"/>
-      <c r="AO14" s="103"/>
-      <c r="AP14" s="103"/>
-      <c r="AQ14" s="103"/>
-      <c r="AR14" s="103"/>
-      <c r="AS14" s="103"/>
-      <c r="AT14" s="103"/>
-      <c r="AU14" s="103"/>
-      <c r="AV14" s="103"/>
-      <c r="AW14" s="103"/>
-      <c r="AX14" s="104"/>
-      <c r="AY14" s="98" t="s">
+      <c r="AK14" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL14" s="106"/>
+      <c r="AM14" s="106"/>
+      <c r="AN14" s="106"/>
+      <c r="AO14" s="106"/>
+      <c r="AP14" s="106"/>
+      <c r="AQ14" s="106"/>
+      <c r="AR14" s="106"/>
+      <c r="AS14" s="106"/>
+      <c r="AT14" s="106"/>
+      <c r="AU14" s="106"/>
+      <c r="AV14" s="106"/>
+      <c r="AW14" s="106"/>
+      <c r="AX14" s="107"/>
+      <c r="AY14" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="AZ14" s="96"/>
-      <c r="BA14" s="96"/>
-      <c r="BB14" s="96"/>
-      <c r="BC14" s="96"/>
-      <c r="BD14" s="97"/>
+      <c r="AZ14" s="100"/>
+      <c r="BA14" s="100"/>
+      <c r="BB14" s="100"/>
+      <c r="BC14" s="100"/>
+      <c r="BD14" s="101"/>
       <c r="BE14" s="34"/>
       <c r="BF14" s="35"/>
       <c r="BG14" s="38" t="s">
@@ -3396,15 +3298,17 @@
       </c>
       <c r="BH14" s="35"/>
       <c r="BI14" s="36"/>
-      <c r="BJ14" s="99" t="s">
+      <c r="BJ14" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="BK14" s="100"/>
-      <c r="BL14" s="100"/>
-      <c r="BM14" s="101"/>
+      <c r="BK14" s="103"/>
+      <c r="BL14" s="103"/>
+      <c r="BM14" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="52">
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:AJ10"/>
     <mergeCell ref="L11:R11"/>
     <mergeCell ref="S11:AJ11"/>
     <mergeCell ref="AK11:AX11"/>
@@ -3459,7 +3363,6 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3467,316 +3370,328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20">
       <c r="A2" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="36">
       <c r="A3" s="39" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="E3" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="F3" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="G3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="H3" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="I3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="J3" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="K3" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="L3" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="M3" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="N3" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="40" t="s">
+      <c r="O3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="P3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="40" t="s">
+      <c r="Q3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="R3" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="S3" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="113" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="E4" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="T3" s="40" t="s">
+      <c r="Q5" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" s="41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="41" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="B4" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="41" t="s">
+      <c r="P6" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="R6" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="41" t="s">
+      <c r="F7" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="O4" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="P4" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="R4" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="S4" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="T4" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="B5" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q5" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="R5" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="T5" s="41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="B6" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q6" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="S6" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="T6" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="B7" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="R7" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="S7" s="42" t="s">
-        <v>85</v>
-      </c>
       <c r="T7" s="42" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報リスト機能.xlsx
+++ b/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報リスト機能.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8521314-84F0-4EEF-97ED-A5C4D8EDBB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A7D286-D746-4D5B-A335-90EDEAA3C3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="123">
   <si>
     <t>No</t>
   </si>
@@ -190,9 +190,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>〇</t>
-  </si>
-  <si>
     <t>2024/5/27</t>
   </si>
   <si>
@@ -231,13 +228,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>新規登録ボダン押す</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>新規登録画面へ遷移される</t>
     <rPh sb="0" eb="4">
       <t>シンキトウロク</t>
@@ -253,9 +243,6 @@
       <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>更新ボダン押す</t>
   </si>
   <si>
     <t>「更新」ボタンをクリックすると、該当ボタン行の社員IDを持ち、社員更新画面へ遷移。</t>
@@ -566,6 +553,17 @@
   </si>
   <si>
     <t>No.4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「新規登録」ボダン押す</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「更新」ボダン押す</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -617,6 +615,7 @@
     <font>
       <sz val="18"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -626,6 +625,7 @@
     <font>
       <sz val="11"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -652,6 +652,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Klee One SemiBold"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1054,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1168,6 +1169,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1225,6 +1229,117 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1265,123 +1380,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1781,16 +1779,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
       <c r="R15" s="8"/>
       <c r="X15" s="7"/>
     </row>
@@ -1798,20 +1796,20 @@
       <c r="A16" s="5"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -1836,58 +1834,58 @@
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="47"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="50"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="52"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="53"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -1912,58 +1910,58 @@
       <c r="A22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="55"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="58"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="60"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="61"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
@@ -2306,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:R12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AY14" sqref="AY14:BD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2387,34 +2385,34 @@
       <c r="BM1" s="27"/>
     </row>
     <row r="2" spans="1:65" s="28" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
       <c r="AQ2" s="29"/>
       <c r="AR2" s="29"/>
       <c r="AS2" s="29"/>
@@ -2440,32 +2438,32 @@
       <c r="BM2" s="27"/>
     </row>
     <row r="3" spans="1:65" s="28" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
       <c r="AQ3" s="29"/>
       <c r="AR3" s="29"/>
       <c r="AS3" s="29"/>
@@ -2491,244 +2489,244 @@
       <c r="BM3" s="31"/>
     </row>
     <row r="4" spans="1:65" s="28" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="70" t="s">
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="73" t="s">
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="75"/>
-      <c r="AW4" s="80" t="s">
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="112"/>
+      <c r="AC4" s="112"/>
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="112"/>
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="112"/>
+      <c r="AH4" s="112"/>
+      <c r="AI4" s="112"/>
+      <c r="AJ4" s="112"/>
+      <c r="AK4" s="112"/>
+      <c r="AL4" s="112"/>
+      <c r="AM4" s="112"/>
+      <c r="AN4" s="112"/>
+      <c r="AO4" s="112"/>
+      <c r="AP4" s="112"/>
+      <c r="AQ4" s="112"/>
+      <c r="AR4" s="112"/>
+      <c r="AS4" s="112"/>
+      <c r="AT4" s="112"/>
+      <c r="AU4" s="112"/>
+      <c r="AV4" s="113"/>
+      <c r="AW4" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="81"/>
-      <c r="AY4" s="82"/>
-      <c r="AZ4" s="83">
+      <c r="AX4" s="85"/>
+      <c r="AY4" s="86"/>
+      <c r="AZ4" s="87">
         <v>45439</v>
       </c>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="84"/>
-      <c r="BE4" s="84"/>
-      <c r="BF4" s="80" t="s">
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="BG4" s="81"/>
-      <c r="BH4" s="82"/>
-      <c r="BI4" s="83" t="s">
+      <c r="BG4" s="85"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="BJ4" s="84"/>
-      <c r="BK4" s="84"/>
-      <c r="BL4" s="84"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="88"/>
       <c r="BM4" s="32"/>
     </row>
     <row r="5" spans="1:65" s="28" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="85" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="91"/>
-      <c r="Y5" s="91"/>
-      <c r="Z5" s="91"/>
-      <c r="AA5" s="91"/>
-      <c r="AB5" s="91"/>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="91"/>
-      <c r="AF5" s="91"/>
-      <c r="AG5" s="91"/>
-      <c r="AH5" s="91"/>
-      <c r="AI5" s="91"/>
-      <c r="AJ5" s="91"/>
-      <c r="AK5" s="91"/>
-      <c r="AL5" s="91"/>
-      <c r="AM5" s="91"/>
-      <c r="AN5" s="91"/>
-      <c r="AO5" s="91"/>
-      <c r="AP5" s="91"/>
-      <c r="AQ5" s="91"/>
-      <c r="AR5" s="91"/>
-      <c r="AS5" s="91"/>
-      <c r="AT5" s="91"/>
-      <c r="AU5" s="91"/>
-      <c r="AV5" s="92"/>
-      <c r="AW5" s="93" t="s">
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="90"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="95"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="95"/>
+      <c r="Z5" s="95"/>
+      <c r="AA5" s="95"/>
+      <c r="AB5" s="95"/>
+      <c r="AC5" s="95"/>
+      <c r="AD5" s="95"/>
+      <c r="AE5" s="95"/>
+      <c r="AF5" s="95"/>
+      <c r="AG5" s="95"/>
+      <c r="AH5" s="95"/>
+      <c r="AI5" s="95"/>
+      <c r="AJ5" s="95"/>
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="95"/>
+      <c r="AO5" s="95"/>
+      <c r="AP5" s="95"/>
+      <c r="AQ5" s="95"/>
+      <c r="AR5" s="95"/>
+      <c r="AS5" s="95"/>
+      <c r="AT5" s="95"/>
+      <c r="AU5" s="95"/>
+      <c r="AV5" s="96"/>
+      <c r="AW5" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="AX5" s="94"/>
-      <c r="AY5" s="95"/>
-      <c r="AZ5" s="94"/>
-      <c r="BA5" s="94"/>
-      <c r="BB5" s="94"/>
-      <c r="BC5" s="94"/>
-      <c r="BD5" s="94"/>
-      <c r="BE5" s="94"/>
-      <c r="BF5" s="93" t="s">
+      <c r="AX5" s="98"/>
+      <c r="AY5" s="99"/>
+      <c r="AZ5" s="98"/>
+      <c r="BA5" s="98"/>
+      <c r="BB5" s="98"/>
+      <c r="BC5" s="98"/>
+      <c r="BD5" s="98"/>
+      <c r="BE5" s="98"/>
+      <c r="BF5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="BG5" s="94"/>
-      <c r="BH5" s="95"/>
-      <c r="BI5" s="94"/>
-      <c r="BJ5" s="91"/>
-      <c r="BK5" s="91"/>
-      <c r="BL5" s="91"/>
+      <c r="BG5" s="98"/>
+      <c r="BH5" s="99"/>
+      <c r="BI5" s="98"/>
+      <c r="BJ5" s="95"/>
+      <c r="BK5" s="95"/>
+      <c r="BL5" s="95"/>
       <c r="BM5" s="33"/>
     </row>
     <row r="6" spans="1:65" ht="18.600000000000001" thickTop="1"/>
     <row r="7" spans="1:65">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79" t="s">
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="76" t="s">
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="76" t="s">
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="77"/>
-      <c r="AN7" s="77"/>
-      <c r="AO7" s="77"/>
-      <c r="AP7" s="77"/>
-      <c r="AQ7" s="77"/>
-      <c r="AR7" s="77"/>
-      <c r="AS7" s="77"/>
-      <c r="AT7" s="77"/>
-      <c r="AU7" s="77"/>
-      <c r="AV7" s="77"/>
-      <c r="AW7" s="77"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="76" t="s">
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="82"/>
+      <c r="AN7" s="82"/>
+      <c r="AO7" s="82"/>
+      <c r="AP7" s="82"/>
+      <c r="AQ7" s="82"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="82"/>
+      <c r="AT7" s="82"/>
+      <c r="AU7" s="82"/>
+      <c r="AV7" s="82"/>
+      <c r="AW7" s="82"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="AZ7" s="77"/>
-      <c r="BA7" s="77"/>
-      <c r="BB7" s="77"/>
-      <c r="BC7" s="77"/>
-      <c r="BD7" s="78"/>
-      <c r="BE7" s="76" t="s">
+      <c r="AZ7" s="82"/>
+      <c r="BA7" s="82"/>
+      <c r="BB7" s="82"/>
+      <c r="BC7" s="82"/>
+      <c r="BD7" s="83"/>
+      <c r="BE7" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="BF7" s="77"/>
-      <c r="BG7" s="77"/>
-      <c r="BH7" s="77"/>
-      <c r="BI7" s="78"/>
-      <c r="BJ7" s="76" t="s">
+      <c r="BF7" s="82"/>
+      <c r="BG7" s="82"/>
+      <c r="BH7" s="82"/>
+      <c r="BI7" s="83"/>
+      <c r="BJ7" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="BK7" s="77"/>
-      <c r="BL7" s="77"/>
-      <c r="BM7" s="78"/>
+      <c r="BK7" s="82"/>
+      <c r="BL7" s="82"/>
+      <c r="BM7" s="83"/>
     </row>
     <row r="8" spans="1:65" ht="39" customHeight="1">
       <c r="A8" s="34"/>
@@ -2736,25 +2734,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="36"/>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="96" t="s">
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="98"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="65"/>
       <c r="S8" s="37" t="s">
         <v>30</v>
       </c>
@@ -2791,14 +2789,12 @@
       <c r="AV8" s="35"/>
       <c r="AW8" s="35"/>
       <c r="AX8" s="36"/>
-      <c r="AY8" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ8" s="100"/>
-      <c r="BA8" s="100"/>
-      <c r="BB8" s="100"/>
-      <c r="BC8" s="100"/>
-      <c r="BD8" s="101"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="75"/>
+      <c r="BA8" s="75"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="75"/>
+      <c r="BD8" s="76"/>
       <c r="BE8" s="34"/>
       <c r="BF8" s="35"/>
       <c r="BG8" s="38" t="s">
@@ -2806,12 +2802,12 @@
       </c>
       <c r="BH8" s="35"/>
       <c r="BI8" s="36"/>
-      <c r="BJ8" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="BK8" s="103"/>
-      <c r="BL8" s="103"/>
-      <c r="BM8" s="104"/>
+      <c r="BJ8" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK8" s="78"/>
+      <c r="BL8" s="78"/>
+      <c r="BM8" s="79"/>
     </row>
     <row r="9" spans="1:65" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="34"/>
@@ -2820,7 +2816,7 @@
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -2836,28 +2832,28 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
       <c r="R9" s="36"/>
-      <c r="S9" s="105" t="s">
+      <c r="S9" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="37" t="s">
         <v>35</v>
-      </c>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="106"/>
-      <c r="AE9" s="106"/>
-      <c r="AF9" s="106"/>
-      <c r="AG9" s="106"/>
-      <c r="AH9" s="106"/>
-      <c r="AI9" s="106"/>
-      <c r="AJ9" s="107"/>
-      <c r="AK9" s="37" t="s">
-        <v>36</v>
       </c>
       <c r="AL9" s="35"/>
       <c r="AM9" s="35"/>
@@ -2872,14 +2868,12 @@
       <c r="AV9" s="35"/>
       <c r="AW9" s="35"/>
       <c r="AX9" s="36"/>
-      <c r="AY9" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ9" s="100"/>
-      <c r="BA9" s="100"/>
-      <c r="BB9" s="100"/>
-      <c r="BC9" s="100"/>
-      <c r="BD9" s="101"/>
+      <c r="AY9" s="74"/>
+      <c r="AZ9" s="75"/>
+      <c r="BA9" s="75"/>
+      <c r="BB9" s="75"/>
+      <c r="BC9" s="75"/>
+      <c r="BD9" s="76"/>
       <c r="BE9" s="34"/>
       <c r="BF9" s="35"/>
       <c r="BG9" s="38" t="s">
@@ -2887,12 +2881,12 @@
       </c>
       <c r="BH9" s="35"/>
       <c r="BI9" s="36"/>
-      <c r="BJ9" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="BK9" s="103"/>
-      <c r="BL9" s="103"/>
-      <c r="BM9" s="104"/>
+      <c r="BJ9" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK9" s="78"/>
+      <c r="BL9" s="78"/>
+      <c r="BM9" s="79"/>
     </row>
     <row r="10" spans="1:65" ht="60.75" customHeight="1">
       <c r="A10" s="34"/>
@@ -2901,7 +2895,7 @@
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -2910,59 +2904,57 @@
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10" s="36"/>
-      <c r="L10" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="105" t="s">
-        <v>111</v>
-      </c>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="106"/>
-      <c r="AI10" s="106"/>
-      <c r="AJ10" s="107"/>
-      <c r="AK10" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL10" s="106"/>
-      <c r="AM10" s="106"/>
-      <c r="AN10" s="106"/>
-      <c r="AO10" s="106"/>
-      <c r="AP10" s="106"/>
-      <c r="AQ10" s="106"/>
-      <c r="AR10" s="106"/>
-      <c r="AS10" s="106"/>
-      <c r="AT10" s="106"/>
-      <c r="AU10" s="106"/>
-      <c r="AV10" s="106"/>
-      <c r="AW10" s="106"/>
-      <c r="AX10" s="107"/>
-      <c r="AY10" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ10" s="100"/>
-      <c r="BA10" s="100"/>
-      <c r="BB10" s="100"/>
-      <c r="BC10" s="100"/>
-      <c r="BD10" s="101"/>
+      <c r="L10" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="67"/>
+      <c r="AH10" s="67"/>
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL10" s="67"/>
+      <c r="AM10" s="67"/>
+      <c r="AN10" s="67"/>
+      <c r="AO10" s="67"/>
+      <c r="AP10" s="67"/>
+      <c r="AQ10" s="67"/>
+      <c r="AR10" s="67"/>
+      <c r="AS10" s="67"/>
+      <c r="AT10" s="67"/>
+      <c r="AU10" s="67"/>
+      <c r="AV10" s="67"/>
+      <c r="AW10" s="67"/>
+      <c r="AX10" s="68"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="76"/>
       <c r="BE10" s="34"/>
       <c r="BF10" s="35"/>
       <c r="BG10" s="38" t="s">
@@ -2970,12 +2962,12 @@
       </c>
       <c r="BH10" s="35"/>
       <c r="BI10" s="36"/>
-      <c r="BJ10" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="BK10" s="103"/>
-      <c r="BL10" s="103"/>
-      <c r="BM10" s="104"/>
+      <c r="BJ10" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK10" s="78"/>
+      <c r="BL10" s="78"/>
+      <c r="BM10" s="79"/>
     </row>
     <row r="11" spans="1:65" ht="72.599999999999994" customHeight="1">
       <c r="A11" s="34"/>
@@ -2984,7 +2976,7 @@
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -2993,59 +2985,57 @@
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
       <c r="K11" s="36"/>
-      <c r="L11" s="96" t="s">
+      <c r="L11" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="105" t="s">
-        <v>115</v>
-      </c>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="111"/>
-      <c r="AF11" s="111"/>
-      <c r="AG11" s="111"/>
-      <c r="AH11" s="111"/>
-      <c r="AI11" s="111"/>
-      <c r="AJ11" s="112"/>
-      <c r="AK11" s="108" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL11" s="109"/>
-      <c r="AM11" s="109"/>
-      <c r="AN11" s="109"/>
-      <c r="AO11" s="109"/>
-      <c r="AP11" s="109"/>
-      <c r="AQ11" s="109"/>
-      <c r="AR11" s="109"/>
-      <c r="AS11" s="109"/>
-      <c r="AT11" s="109"/>
-      <c r="AU11" s="109"/>
-      <c r="AV11" s="109"/>
-      <c r="AW11" s="109"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ11" s="100"/>
-      <c r="BA11" s="100"/>
-      <c r="BB11" s="100"/>
-      <c r="BC11" s="100"/>
-      <c r="BD11" s="101"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="69"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="72"/>
+      <c r="AO11" s="72"/>
+      <c r="AP11" s="72"/>
+      <c r="AQ11" s="72"/>
+      <c r="AR11" s="72"/>
+      <c r="AS11" s="72"/>
+      <c r="AT11" s="72"/>
+      <c r="AU11" s="72"/>
+      <c r="AV11" s="72"/>
+      <c r="AW11" s="72"/>
+      <c r="AX11" s="73"/>
+      <c r="AY11" s="74"/>
+      <c r="AZ11" s="75"/>
+      <c r="BA11" s="75"/>
+      <c r="BB11" s="75"/>
+      <c r="BC11" s="75"/>
+      <c r="BD11" s="76"/>
       <c r="BE11" s="34"/>
       <c r="BF11" s="35"/>
       <c r="BG11" s="38" t="s">
@@ -3053,12 +3043,12 @@
       </c>
       <c r="BH11" s="35"/>
       <c r="BI11" s="36"/>
-      <c r="BJ11" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="BK11" s="103"/>
-      <c r="BL11" s="103"/>
-      <c r="BM11" s="104"/>
+      <c r="BJ11" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK11" s="78"/>
+      <c r="BL11" s="78"/>
+      <c r="BM11" s="79"/>
     </row>
     <row r="12" spans="1:65" ht="65.400000000000006" customHeight="1">
       <c r="A12" s="34"/>
@@ -3067,7 +3057,7 @@
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -3076,59 +3066,57 @@
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="36"/>
-      <c r="L12" s="96" t="s">
-        <v>117</v>
-      </c>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="106"/>
-      <c r="AF12" s="106"/>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="106"/>
-      <c r="AI12" s="106"/>
-      <c r="AJ12" s="107"/>
-      <c r="AK12" s="108" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL12" s="109"/>
-      <c r="AM12" s="109"/>
-      <c r="AN12" s="109"/>
-      <c r="AO12" s="109"/>
-      <c r="AP12" s="109"/>
-      <c r="AQ12" s="109"/>
-      <c r="AR12" s="109"/>
-      <c r="AS12" s="109"/>
-      <c r="AT12" s="109"/>
-      <c r="AU12" s="109"/>
-      <c r="AV12" s="109"/>
-      <c r="AW12" s="109"/>
-      <c r="AX12" s="110"/>
-      <c r="AY12" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ12" s="100"/>
-      <c r="BA12" s="100"/>
-      <c r="BB12" s="100"/>
-      <c r="BC12" s="100"/>
-      <c r="BD12" s="101"/>
+      <c r="L12" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="67"/>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL12" s="72"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="72"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="72"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="73"/>
+      <c r="AY12" s="74"/>
+      <c r="AZ12" s="75"/>
+      <c r="BA12" s="75"/>
+      <c r="BB12" s="75"/>
+      <c r="BC12" s="75"/>
+      <c r="BD12" s="76"/>
       <c r="BE12" s="34"/>
       <c r="BF12" s="35"/>
       <c r="BG12" s="38" t="s">
@@ -3136,12 +3124,12 @@
       </c>
       <c r="BH12" s="35"/>
       <c r="BI12" s="36"/>
-      <c r="BJ12" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="BK12" s="103"/>
-      <c r="BL12" s="103"/>
-      <c r="BM12" s="104"/>
+      <c r="BJ12" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK12" s="78"/>
+      <c r="BL12" s="78"/>
+      <c r="BM12" s="79"/>
     </row>
     <row r="13" spans="1:65">
       <c r="A13" s="34"/>
@@ -3150,7 +3138,7 @@
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -3167,7 +3155,7 @@
       <c r="Q13" s="35"/>
       <c r="R13" s="36"/>
       <c r="S13" s="37" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
@@ -3187,7 +3175,7 @@
       <c r="AI13" s="35"/>
       <c r="AJ13" s="36"/>
       <c r="AK13" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL13" s="35"/>
       <c r="AM13" s="35"/>
@@ -3202,14 +3190,12 @@
       <c r="AV13" s="35"/>
       <c r="AW13" s="35"/>
       <c r="AX13" s="36"/>
-      <c r="AY13" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ13" s="100"/>
-      <c r="BA13" s="100"/>
-      <c r="BB13" s="100"/>
-      <c r="BC13" s="100"/>
-      <c r="BD13" s="101"/>
+      <c r="AY13" s="74"/>
+      <c r="AZ13" s="75"/>
+      <c r="BA13" s="75"/>
+      <c r="BB13" s="75"/>
+      <c r="BC13" s="75"/>
+      <c r="BD13" s="76"/>
       <c r="BE13" s="34"/>
       <c r="BF13" s="35"/>
       <c r="BG13" s="38" t="s">
@@ -3217,12 +3203,12 @@
       </c>
       <c r="BH13" s="35"/>
       <c r="BI13" s="36"/>
-      <c r="BJ13" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="BK13" s="103"/>
-      <c r="BL13" s="103"/>
-      <c r="BM13" s="104"/>
+      <c r="BJ13" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK13" s="78"/>
+      <c r="BL13" s="78"/>
+      <c r="BM13" s="79"/>
     </row>
     <row r="14" spans="1:65" ht="54.75" customHeight="1">
       <c r="A14" s="34"/>
@@ -3231,7 +3217,7 @@
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -3247,8 +3233,8 @@
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
       <c r="R14" s="36"/>
-      <c r="S14" s="34" t="s">
-        <v>42</v>
+      <c r="S14" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
@@ -3267,30 +3253,28 @@
       <c r="AH14" s="35"/>
       <c r="AI14" s="35"/>
       <c r="AJ14" s="36"/>
-      <c r="AK14" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL14" s="106"/>
-      <c r="AM14" s="106"/>
-      <c r="AN14" s="106"/>
-      <c r="AO14" s="106"/>
-      <c r="AP14" s="106"/>
-      <c r="AQ14" s="106"/>
-      <c r="AR14" s="106"/>
-      <c r="AS14" s="106"/>
-      <c r="AT14" s="106"/>
-      <c r="AU14" s="106"/>
-      <c r="AV14" s="106"/>
-      <c r="AW14" s="106"/>
-      <c r="AX14" s="107"/>
-      <c r="AY14" s="99" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ14" s="100"/>
-      <c r="BA14" s="100"/>
-      <c r="BB14" s="100"/>
-      <c r="BC14" s="100"/>
-      <c r="BD14" s="101"/>
+      <c r="AK14" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL14" s="67"/>
+      <c r="AM14" s="67"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="67"/>
+      <c r="AP14" s="67"/>
+      <c r="AQ14" s="67"/>
+      <c r="AR14" s="67"/>
+      <c r="AS14" s="67"/>
+      <c r="AT14" s="67"/>
+      <c r="AU14" s="67"/>
+      <c r="AV14" s="67"/>
+      <c r="AW14" s="67"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="75"/>
+      <c r="BA14" s="75"/>
+      <c r="BB14" s="75"/>
+      <c r="BC14" s="75"/>
+      <c r="BD14" s="76"/>
       <c r="BE14" s="34"/>
       <c r="BF14" s="35"/>
       <c r="BG14" s="38" t="s">
@@ -3298,46 +3282,20 @@
       </c>
       <c r="BH14" s="35"/>
       <c r="BI14" s="36"/>
-      <c r="BJ14" s="102" t="s">
-        <v>33</v>
-      </c>
-      <c r="BK14" s="103"/>
-      <c r="BL14" s="103"/>
-      <c r="BM14" s="104"/>
+      <c r="BJ14" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="BK14" s="78"/>
+      <c r="BL14" s="78"/>
+      <c r="BM14" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:AJ10"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="AK11:AX11"/>
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="AY13:BD13"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="BJ13:BM13"/>
-    <mergeCell ref="BJ14:BM14"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="S9:AJ9"/>
-    <mergeCell ref="AY9:BD9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="S12:AJ12"/>
-    <mergeCell ref="AK12:AX12"/>
-    <mergeCell ref="AY12:BD12"/>
-    <mergeCell ref="BJ12:BM12"/>
-    <mergeCell ref="AK14:AX14"/>
-    <mergeCell ref="AY14:BD14"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="AY7:BD7"/>
-    <mergeCell ref="AK7:AX7"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
     <mergeCell ref="BJ7:BM7"/>
     <mergeCell ref="BE7:BI7"/>
     <mergeCell ref="A7:C7"/>
@@ -3354,11 +3312,37 @@
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BL5"/>
     <mergeCell ref="S7:AJ7"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="AY7:BD7"/>
+    <mergeCell ref="AK7:AX7"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="BJ14:BM14"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="S9:AJ9"/>
+    <mergeCell ref="AY9:BD9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="S12:AJ12"/>
+    <mergeCell ref="AK12:AX12"/>
+    <mergeCell ref="AY12:BD12"/>
+    <mergeCell ref="BJ12:BM12"/>
+    <mergeCell ref="AK14:AX14"/>
+    <mergeCell ref="AY14:BD14"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="AY13:BD13"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="BJ13:BM13"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:AJ10"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:AJ11"/>
+    <mergeCell ref="AK11:AX11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3370,7 +3354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -3381,317 +3365,317 @@
   <sheetData>
     <row r="2" spans="1:20">
       <c r="A2" s="39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="36">
       <c r="A3" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="S4" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="T5" s="41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="40" t="s">
+      <c r="B6" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="40" t="s">
+      <c r="E6" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="113" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="41" t="s">
+      <c r="P6" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="41" t="s">
+      <c r="F7" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="P4" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q4" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="R4" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="S4" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4" s="41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="113" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="41" t="s">
+      <c r="T7" s="42" t="s">
         <v>76</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="O5" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="P5" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="R5" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="S5" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="T5" s="41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="114" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="R6" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="T6" s="42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="114" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="R7" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="S7" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="T7" s="42" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
